--- a/biology/Biochimie/Vincent_du_Vigneaud/Vincent_du_Vigneaud.xlsx
+++ b/biology/Biochimie/Vincent_du_Vigneaud/Vincent_du_Vigneaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vincent du Vigneaud (18 mai 1901 - 11 décembre 1978) est un biochimiste franco-américain. Il reçut la Médaille William-H.-Nichols en 1945, le prix Lasker en 1948 puis le prix Nobel de chimie en 1955[1] et le prix Willard-Gibbs en 1956.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vincent du Vigneaud (18 mai 1901 - 11 décembre 1978) est un biochimiste franco-américain. Il reçut la Médaille William-H.-Nichols en 1945, le prix Lasker en 1948 puis le prix Nobel de chimie en 1955 et le prix Willard-Gibbs en 1956.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il adhéra à l'association Alpha Chi Sigma durant ses études à l'université de l'Illinois en 1930.
-Il est lauréat du prix Nobel de chimie de 1955 « pour son travail sur les importants composés biochimiques à base de soufre, particulièrement pour la première synthèse d'une hormone polypeptidique[1] ».
+Il est lauréat du prix Nobel de chimie de 1955 « pour son travail sur les importants composés biochimiques à base de soufre, particulièrement pour la première synthèse d'une hormone polypeptidique ».
 </t>
         </is>
       </c>
